--- a/map_France/Pour mémoire.xlsx
+++ b/map_France/Pour mémoire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\mymaps\Github\mymaps\map_France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FFE2D6-12FB-4066-B0D3-E4F97ACEDBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB007D23-81CD-43AE-B026-3CB83EA3B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="140">
   <si>
     <t>Occitanie</t>
   </si>
@@ -402,39 +402,12 @@
     <t>Terres australes et antarctiques françaises</t>
   </si>
   <si>
-    <t>FEA47F</t>
-  </si>
-  <si>
     <t>F97F51</t>
   </si>
   <si>
-    <t>B33771</t>
-  </si>
-  <si>
-    <t>A23269</t>
-  </si>
-  <si>
-    <t>902C60</t>
-  </si>
-  <si>
-    <t>7F2758</t>
-  </si>
-  <si>
     <t>6D214F</t>
   </si>
   <si>
-    <t>55E6C1</t>
-  </si>
-  <si>
-    <t>56D9B9</t>
-  </si>
-  <si>
-    <t>57CCB0</t>
-  </si>
-  <si>
-    <t>57BEA8</t>
-  </si>
-  <si>
     <t>58B19F</t>
   </si>
   <si>
@@ -444,287 +417,50 @@
     <t>182C61</t>
   </si>
   <si>
-    <t>FD7272</t>
-  </si>
-  <si>
-    <t>FD6275</t>
-  </si>
-  <si>
-    <t>FC5278</t>
-  </si>
-  <si>
     <t>FC427B</t>
   </si>
   <si>
-    <t>FD9B74</t>
-  </si>
-  <si>
-    <t>FC9268</t>
-  </si>
-  <si>
-    <t>FA885D</t>
-  </si>
-  <si>
-    <t>CAD3C8</t>
-  </si>
-  <si>
-    <t>BDC6BD</t>
-  </si>
-  <si>
-    <t>B0BAB3</t>
-  </si>
-  <si>
-    <t>A3ADA8</t>
-  </si>
-  <si>
-    <t>95A09D</t>
-  </si>
-  <si>
-    <t>7B8788</t>
-  </si>
-  <si>
     <t>6E7A7D</t>
   </si>
   <si>
-    <t>2C3A47</t>
-  </si>
-  <si>
-    <t>46545D</t>
-  </si>
-  <si>
-    <t>616D72</t>
-  </si>
-  <si>
-    <t>EAB543</t>
-  </si>
-  <si>
-    <t>EBBA4E</t>
-  </si>
-  <si>
-    <t>EDC059</t>
-  </si>
-  <si>
-    <t>EEC563</t>
-  </si>
-  <si>
-    <t>EFCA6E</t>
-  </si>
-  <si>
-    <t>F0CF79</t>
-  </si>
-  <si>
-    <t>F2D584</t>
-  </si>
-  <si>
-    <t>F3DA8F</t>
-  </si>
-  <si>
-    <t>F4DF9A</t>
-  </si>
-  <si>
-    <t>F5E4A4</t>
-  </si>
-  <si>
-    <t>F7EAAF</t>
-  </si>
-  <si>
-    <t>F8EFBA</t>
-  </si>
-  <si>
-    <t>D6A2E8</t>
-  </si>
-  <si>
-    <t>CE9BE1</t>
-  </si>
-  <si>
-    <t>C795DB</t>
-  </si>
-  <si>
-    <t>BF8ED4</t>
-  </si>
-  <si>
-    <t>B787CD</t>
-  </si>
-  <si>
-    <t>B080C7</t>
-  </si>
-  <si>
-    <t>A87AC0</t>
-  </si>
-  <si>
-    <t>A173BA</t>
-  </si>
-  <si>
-    <t>996CB3</t>
-  </si>
-  <si>
-    <t>9165AC</t>
-  </si>
-  <si>
-    <t>8A5FA6</t>
-  </si>
-  <si>
     <t>82589F</t>
   </si>
   <si>
-    <t>orchid orange</t>
-  </si>
-  <si>
-    <t>fiery fuchsia</t>
-  </si>
-  <si>
-    <t>bluebell</t>
-  </si>
-  <si>
-    <t>honey glow</t>
-  </si>
-  <si>
-    <t>georgia peach</t>
-  </si>
-  <si>
-    <t>falling star</t>
-  </si>
-  <si>
-    <t>bright ube</t>
-  </si>
-  <si>
-    <t>25CCF7</t>
-  </si>
-  <si>
-    <t>23C2F8</t>
-  </si>
-  <si>
-    <t>21B9F9</t>
-  </si>
-  <si>
-    <t>1FAFFA</t>
-  </si>
-  <si>
-    <t>1DA6FB</t>
-  </si>
-  <si>
     <t>1B9CFC</t>
   </si>
   <si>
-    <t>spiro disco ball</t>
-  </si>
-  <si>
-    <t>56DBBA</t>
-  </si>
-  <si>
-    <t>56D1B3</t>
-  </si>
-  <si>
-    <t>57C6AD</t>
-  </si>
-  <si>
-    <t>57BCA6</t>
-  </si>
-  <si>
-    <t>9AECDB</t>
-  </si>
-  <si>
-    <t>9FE6CE</t>
-  </si>
-  <si>
-    <t>A4E1C1</t>
-  </si>
-  <si>
-    <t>A9DBB4</t>
-  </si>
-  <si>
-    <t>AED6A8</t>
-  </si>
-  <si>
-    <t>B3D09B</t>
-  </si>
-  <si>
-    <t>B8CB8E</t>
-  </si>
-  <si>
     <t>BDC581</t>
   </si>
   <si>
     <t>https://flatuicolors.com/palette/in</t>
   </si>
   <si>
-    <t>FF5252</t>
-  </si>
-  <si>
-    <t>F74F4F</t>
-  </si>
-  <si>
     <t>EE4C4C</t>
   </si>
   <si>
-    <t>E64A4A</t>
-  </si>
-  <si>
-    <t>DD4747</t>
-  </si>
-  <si>
-    <t>D54444</t>
-  </si>
-  <si>
-    <t>CC4141</t>
-  </si>
-  <si>
-    <t>C43F3F</t>
-  </si>
-  <si>
-    <t>BB3C3C</t>
-  </si>
-  <si>
-    <t>B33939</t>
-  </si>
-  <si>
     <t>FF793F</t>
   </si>
   <si>
-    <t>F8763D</t>
-  </si>
-  <si>
-    <t>F1723C</t>
-  </si>
-  <si>
-    <t>EA6F3A</t>
-  </si>
-  <si>
-    <t>E26B38</t>
-  </si>
-  <si>
-    <t>DB6836</t>
-  </si>
-  <si>
-    <t>D46435</t>
-  </si>
-  <si>
     <t>CD6133</t>
   </si>
   <si>
-    <t>Synthetic pumpkin</t>
-  </si>
-  <si>
-    <t>Fluorescent red</t>
-  </si>
-  <si>
     <t>https://flatuicolors.com/palette/es</t>
-  </si>
-  <si>
-    <t>Oasis stream</t>
-  </si>
-  <si>
-    <t>Sweet garden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1040,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,13 +798,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1078,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1091,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1101,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1111,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1120,8 +853,8 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>889392</v>
+      <c r="D6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1131,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1141,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1151,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1160,8 +893,8 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>546067</v>
+      <c r="D10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1180,8 +913,8 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>394752</v>
+      <c r="D12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1191,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1203,10 +936,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1216,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1226,100 +956,100 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>27</v>
@@ -1328,123 +1058,120 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>40</v>
@@ -1453,103 +1180,100 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" t="s">
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" t="s">
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" t="s">
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" t="s">
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" t="s">
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" t="s">
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>51</v>
@@ -1558,83 +1282,80 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
         <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" t="s">
         <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" t="s">
         <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
         <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" t="s">
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" t="s">
         <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>60</v>
@@ -1643,83 +1364,80 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>217</v>
-      </c>
-      <c r="E56" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" t="s">
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
         <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" t="s">
         <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>69</v>
@@ -1728,63 +1446,60 @@
         <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" t="s">
         <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" t="s">
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" t="s">
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" t="s">
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>76</v>
@@ -1793,63 +1508,60 @@
         <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" t="s">
         <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" t="s">
         <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" t="s">
         <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" t="s">
         <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" t="s">
         <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>83</v>
@@ -1858,53 +1570,50 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" t="s">
         <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" t="s">
         <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" t="s">
         <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" t="s">
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>89</v>
@@ -1913,50 +1622,50 @@
         <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" t="s">
         <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" t="s">
         <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" t="s">
         <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" t="s">
         <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>95</v>
@@ -1967,51 +1676,48 @@
       <c r="D86" t="s">
         <v>125</v>
       </c>
-      <c r="E86" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" t="s">
         <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" t="s">
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" t="s">
         <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" t="s">
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>101</v>
@@ -2020,43 +1726,40 @@
         <v>102</v>
       </c>
       <c r="D91" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" t="s">
         <v>103</v>
       </c>
       <c r="D92" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" t="s">
         <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" t="s">
         <v>105</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>106</v>
@@ -2065,20 +1768,17 @@
         <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>137</v>
-      </c>
-      <c r="E95" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" t="s">
         <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,19 +1878,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B104:C104"/>
     <mergeCell ref="B91:B94"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="A1:A96"/>
@@ -2207,7 +1894,22 @@
     <mergeCell ref="B26:B37"/>
     <mergeCell ref="B38:B47"/>
     <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B104:C104"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>